--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,33 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chik</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$23.67</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6/10/24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chik</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,20 +478,39 @@
           <t>Food</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$23.67</t>
-        </is>
+      <c r="C2" t="n">
+        <v>124</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6/10/24</t>
-        </is>
+      <c r="E2" s="2" t="n">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>wendy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>45456</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,81 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unknown Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tractor Supply Co</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3/16/19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SsTopsSHOP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Loww</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>04/07/20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,108 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>chik</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$23.67</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6/10/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Work</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Unknown Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tractor Supply Co</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3/16/19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SsTopsSHOP</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35.01</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Loww</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>04/07/20</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
